--- a/初中阶段30节课程安排.xlsx
+++ b/初中阶段30节课程安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\F16block21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\F16blcok21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7829E127-6241-4A90-AD8F-77FEF94ACAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF264AC-733E-4738-B219-392A94F0AD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>芯片基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,26 +51,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑电路与真值表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>译码器与选通器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前沿与背景介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储器与数据地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组合逻辑综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,34 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时序逻辑与寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数列求和与数列产生器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态机与倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行电路：加法树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线：流水化加法树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时序逻辑综合：存储器的读与写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时序逻辑复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选通与译码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组合逻辑综合小实验：破解暗号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,26 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加法树单周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加法树多周期（流水）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机小实验：计时码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时序逻辑综合小实验：迷你计算器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据流小实验：水电站流量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组合逻辑实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,46 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真值表的概念引入；2bit算数运算的真值表；1bit逻辑运算的真值表；逻辑电路与真值表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>译码器的概念；3-8译码器；选通器的概念；2-4选通器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储器的背景介绍；存储器的功能；数据地址与存储器的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复习之前讲过的内容；若干习题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组合逻辑局限，引入时序逻辑；寄存器的概念；寄存器的特点与功能；时序逻辑与组合逻辑的不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用时序逻辑对等差数列求和，使用时序逻辑产生等差数列，使用时序逻辑输出斐波那契数列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机的概念；对计时秒表进行状态机建模；如何使用状态机控制系统的工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入需要电路性能的问题场景；引入并行化方法提高电路性能；结合等差数列求和对电路进行改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入流水线；引入时空图的概念；对等差数列求和进行流水化建模；结合流水线对等差数列求和进行改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入数据流的概念；数据流的特征；数据流中的一些特殊信号；接收与产生数据流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以手环为例，介绍其中的蓝牙芯片、记步芯片；充电芯片；主控芯片；屏幕芯片等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成一个简单的存储器读写功能：地址选通；寄存器保存数据；读写信号控制；数据流相关信号控制；流水访存；并行多体存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加减乘运算；补码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选通器与译码器的实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>译码器综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,23 +171,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并行度为4的三层加法树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行度为4的三层加法树，流水化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机控制的计时码表，启动、暂停、提示等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid，start, end，data等信号的使用与生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用时序逻辑完成一个简单的MCU运算器，结合译码、运算、倒计时等，实现一个比较简单但是完整的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真值表的概念引入；2bit算数运算的真值表；1bit逻辑运算的真值表；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过真值表建立数字电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立起真值表和数字电路之间的关系，设计一些简单的门电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译码器与编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译码器的概念；3-8译码器；8-3编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器的概念，2-4选通器，3-8选通器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译码器与编码器实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译码器与编码器的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储器的地址索引与存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从选通器引入地址索引的问题；过渡到存储器中的地址；介绍存储器的前沿知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序逻辑与时钟信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器的概念；寄存器的特点与功能；</t>
+  </si>
+  <si>
+    <t>组合逻辑局限，引入时序逻辑；时序逻辑与组合逻辑的不同；时钟信号的概念与特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数列求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数列产生器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等差数列求和；等比数列求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等差数列生成；等比数列生成；斐波那契数列生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机与电路的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机的概念；对计时秒表进行状态机建模；对24小时时钟问题进行状态机建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据状态机的建模对计时秒表和24小时时钟进行交互控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用状态机实现计时秒表和24小时时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片前沿介绍：国产芯片之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍最具有特色的国产芯片：海思麒麟手机CPU、寒武纪思元AI芯片、龙芯2F卫星芯片、飞腾1500A飞机控制芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解答同学们之前累积的问题/机动课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 4节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课 17节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验 9节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,12 +342,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,8 +380,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -613,20 +665,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="112.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="112.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -637,334 +689,349 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
